--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N2">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O2">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P2">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q2">
-        <v>48.39983649304</v>
+        <v>262.8958296773014</v>
       </c>
       <c r="R2">
-        <v>435.59852843736</v>
+        <v>2366.062467095712</v>
       </c>
       <c r="S2">
-        <v>0.006170549491904688</v>
+        <v>0.1832680970823328</v>
       </c>
       <c r="T2">
-        <v>0.006170549491904689</v>
+        <v>0.1832680970823327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.756006</v>
       </c>
       <c r="O3">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P3">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q3">
-        <v>100.2376420441538</v>
+        <v>185.8993856996516</v>
       </c>
       <c r="R3">
-        <v>902.138778397384</v>
+        <v>1673.094471296864</v>
       </c>
       <c r="S3">
-        <v>0.01277940951875368</v>
+        <v>0.1295928760367527</v>
       </c>
       <c r="T3">
-        <v>0.01277940951875368</v>
+        <v>0.1295928760367527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N4">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O4">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P4">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q4">
-        <v>758.1022558065376</v>
+        <v>18.97916624771377</v>
       </c>
       <c r="R4">
-        <v>6822.920302258839</v>
+        <v>170.812496229424</v>
       </c>
       <c r="S4">
-        <v>0.09665130769711426</v>
+        <v>0.01323062327271317</v>
       </c>
       <c r="T4">
-        <v>0.09665130769711426</v>
+        <v>0.01323062327271317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N5">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O5">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P5">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q5">
-        <v>53.95664865688578</v>
+        <v>109.1796317147449</v>
       </c>
       <c r="R5">
-        <v>485.609837911972</v>
+        <v>982.616685432704</v>
       </c>
       <c r="S5">
-        <v>0.006878993713181327</v>
+        <v>0.07611053917847221</v>
       </c>
       <c r="T5">
-        <v>0.006878993713181327</v>
+        <v>0.07611053917847219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N6">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O6">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P6">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q6">
-        <v>22.81205182577822</v>
+        <v>18.17432348969066</v>
       </c>
       <c r="R6">
-        <v>205.308466432004</v>
+        <v>163.568911407216</v>
       </c>
       <c r="S6">
-        <v>0.002908334097845583</v>
+        <v>0.01266955693364477</v>
       </c>
       <c r="T6">
-        <v>0.002908334097845583</v>
+        <v>0.01266955693364477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N7">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O7">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P7">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q7">
-        <v>1392.397290506811</v>
+        <v>60.07417305872889</v>
       </c>
       <c r="R7">
-        <v>12531.5756145613</v>
+        <v>540.66755752856</v>
       </c>
       <c r="S7">
-        <v>0.1775182937798105</v>
+        <v>0.04187848621935964</v>
       </c>
       <c r="T7">
-        <v>0.1775182937798105</v>
+        <v>0.04187848621935963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N8">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O8">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P8">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q8">
-        <v>100.97383442036</v>
+        <v>295.7341912813054</v>
       </c>
       <c r="R8">
-        <v>908.76450978324</v>
+        <v>2661.607721531748</v>
       </c>
       <c r="S8">
-        <v>0.01287326751130282</v>
+        <v>0.2061601454265556</v>
       </c>
       <c r="T8">
-        <v>0.01287326751130282</v>
+        <v>0.2061601454265555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.756006</v>
       </c>
       <c r="O9">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P9">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q9">
         <v>209.1201087406396</v>
@@ -1013,10 +1013,10 @@
         <v>1882.080978665756</v>
       </c>
       <c r="S9">
-        <v>0.02666095743778322</v>
+        <v>0.1457803436349319</v>
       </c>
       <c r="T9">
-        <v>0.02666095743778323</v>
+        <v>0.1457803436349318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N10">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O10">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P10">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q10">
-        <v>1581.585749003895</v>
+        <v>21.34985704547178</v>
       </c>
       <c r="R10">
-        <v>14234.27174103506</v>
+        <v>192.148713409246</v>
       </c>
       <c r="S10">
-        <v>0.2016381427512278</v>
+        <v>0.01488326261586673</v>
       </c>
       <c r="T10">
-        <v>0.2016381427512278</v>
+        <v>0.01488326261586673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N11">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O11">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P11">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q11">
-        <v>112.5666965453776</v>
+        <v>122.8172775855129</v>
       </c>
       <c r="R11">
-        <v>1013.100268908398</v>
+        <v>1105.355498269616</v>
       </c>
       <c r="S11">
-        <v>0.01435125451866668</v>
+        <v>0.08561751922637283</v>
       </c>
       <c r="T11">
-        <v>0.01435125451866668</v>
+        <v>0.08561751922637281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N12">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O12">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P12">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q12">
-        <v>47.59149019389844</v>
+        <v>20.44448124531266</v>
       </c>
       <c r="R12">
-        <v>428.3234117450859</v>
+        <v>184.000331207814</v>
       </c>
       <c r="S12">
-        <v>0.006067492514714935</v>
+        <v>0.01425211338750801</v>
       </c>
       <c r="T12">
-        <v>0.006067492514714936</v>
+        <v>0.01425211338750801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N13">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O13">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P13">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q13">
-        <v>2904.879512954772</v>
+        <v>67.57804795999888</v>
       </c>
       <c r="R13">
-        <v>26143.91561659295</v>
+        <v>608.2024316399899</v>
       </c>
       <c r="S13">
-        <v>0.3703463503494483</v>
+        <v>0.04710953486546286</v>
       </c>
       <c r="T13">
-        <v>0.3703463503494484</v>
+        <v>0.04710953486546285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N14">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O14">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P14">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q14">
-        <v>0.08630647344</v>
+        <v>0.2286462871146667</v>
       </c>
       <c r="R14">
-        <v>0.77675826096</v>
+        <v>2.057816584032</v>
       </c>
       <c r="S14">
-        <v>1.10033091932007E-05</v>
+        <v>0.0001593922961649157</v>
       </c>
       <c r="T14">
-        <v>1.10033091932007E-05</v>
+        <v>0.0001593922961649157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.756006</v>
       </c>
       <c r="O15">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P15">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q15">
-        <v>0.178743525136</v>
+        <v>0.1616807857671111</v>
       </c>
       <c r="R15">
-        <v>1.608691726224</v>
+        <v>1.455127071904</v>
       </c>
       <c r="S15">
-        <v>2.278821269092104E-05</v>
+        <v>0.0001127097754980977</v>
       </c>
       <c r="T15">
-        <v>2.278821269092105E-05</v>
+        <v>0.0001127097754980977</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N16">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O16">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P16">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q16">
-        <v>1.35184614136</v>
+        <v>0.01650659845155555</v>
       </c>
       <c r="R16">
-        <v>12.16661527224</v>
+        <v>0.148559386064</v>
       </c>
       <c r="S16">
-        <v>0.0001723483822492211</v>
+        <v>1.15069641509036E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001723483822492211</v>
+        <v>1.15069641509036E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N17">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O17">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P17">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q17">
-        <v>0.09621536768800001</v>
+        <v>0.09495592779377779</v>
       </c>
       <c r="R17">
-        <v>0.8659383091920001</v>
+        <v>0.854603350144</v>
       </c>
       <c r="S17">
-        <v>1.226660524537075E-05</v>
+        <v>6.619501045267277E-05</v>
       </c>
       <c r="T17">
-        <v>1.226660524537075E-05</v>
+        <v>6.619501045267276E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N18">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O18">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P18">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q18">
-        <v>0.040678396616</v>
+        <v>0.01580660899733333</v>
       </c>
       <c r="R18">
-        <v>0.366105569544</v>
+        <v>0.142259480976</v>
       </c>
       <c r="S18">
-        <v>5.186134453294107E-06</v>
+        <v>1.101899241163914E-05</v>
       </c>
       <c r="T18">
-        <v>5.186134453294108E-06</v>
+        <v>1.101899241163914E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N19">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O19">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P19">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q19">
-        <v>2.4829195402</v>
+        <v>0.05224783001777777</v>
       </c>
       <c r="R19">
-        <v>22.3462758618</v>
+        <v>0.47023047016</v>
       </c>
       <c r="S19">
-        <v>0.0003165501996979788</v>
+        <v>3.642264084520797E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003165501996979788</v>
+        <v>3.642264084520797E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N20">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O20">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P20">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q20">
-        <v>9.7813241753</v>
+        <v>15.68795344695334</v>
       </c>
       <c r="R20">
-        <v>88.0319175777</v>
+        <v>141.19158102258</v>
       </c>
       <c r="S20">
-        <v>0.001247032000381485</v>
+        <v>0.01093627608649586</v>
       </c>
       <c r="T20">
-        <v>0.001247032000381485</v>
+        <v>0.01093627608649586</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.756006</v>
       </c>
       <c r="O21">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P21">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q21">
-        <v>20.25744181062555</v>
+        <v>11.09329467969556</v>
       </c>
       <c r="R21">
-        <v>182.31697629563</v>
+        <v>99.83965211726002</v>
       </c>
       <c r="S21">
-        <v>0.002582643999010606</v>
+        <v>0.007733279789249185</v>
       </c>
       <c r="T21">
-        <v>0.002582643999010607</v>
+        <v>0.007733279789249183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N22">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O22">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P22">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q22">
-        <v>153.2080366250055</v>
+        <v>1.132556103767778</v>
       </c>
       <c r="R22">
-        <v>1378.87232962505</v>
+        <v>10.19300493391</v>
       </c>
       <c r="S22">
-        <v>0.01953266459253618</v>
+        <v>0.0007895195683829541</v>
       </c>
       <c r="T22">
-        <v>0.01953266459253618</v>
+        <v>0.000789519568382954</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N23">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O23">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P23">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q23">
-        <v>10.90432344749056</v>
+        <v>6.51514701392889</v>
       </c>
       <c r="R23">
-        <v>98.13891102741501</v>
+        <v>58.63632312536001</v>
       </c>
       <c r="S23">
-        <v>0.001390204438359065</v>
+        <v>0.004541793595280764</v>
       </c>
       <c r="T23">
-        <v>0.001390204438359065</v>
+        <v>0.004541793595280764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N24">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O24">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P24">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q24">
-        <v>4.610182392739444</v>
+        <v>1.084528199576667</v>
       </c>
       <c r="R24">
-        <v>41.491641534655</v>
+        <v>9.76075379619</v>
       </c>
       <c r="S24">
-        <v>0.0005877573289983553</v>
+        <v>0.0007560386926354698</v>
       </c>
       <c r="T24">
-        <v>0.0005877573289983554</v>
+        <v>0.0007560386926354697</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N25">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O25">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P25">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q25">
-        <v>281.3953572180972</v>
+        <v>3.584845113238889</v>
       </c>
       <c r="R25">
-        <v>2532.558214962875</v>
+        <v>32.26360601915</v>
       </c>
       <c r="S25">
-        <v>0.03587541000796895</v>
+        <v>0.002499042084633401</v>
       </c>
       <c r="T25">
-        <v>0.03587541000796896</v>
+        <v>0.002499042084633401</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N26">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O26">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P26">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q26">
-        <v>0.34286826606</v>
+        <v>0.9993817132786668</v>
       </c>
       <c r="R26">
-        <v>3.08581439454</v>
+        <v>8.994435419508001</v>
       </c>
       <c r="S26">
-        <v>4.371266017047423E-05</v>
+        <v>0.0006966819712442037</v>
       </c>
       <c r="T26">
-        <v>4.371266017047424E-05</v>
+        <v>0.0006966819712442035</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.756006</v>
       </c>
       <c r="O27">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P27">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q27">
-        <v>0.7100913765806667</v>
+        <v>0.7066846469417777</v>
       </c>
       <c r="R27">
-        <v>6.390822389226001</v>
+        <v>6.360161822476</v>
       </c>
       <c r="S27">
-        <v>9.053034680387452E-05</v>
+        <v>0.0004926390450593823</v>
       </c>
       <c r="T27">
-        <v>9.053034680387455E-05</v>
+        <v>0.0004926390450593822</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N28">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O28">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P28">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q28">
-        <v>5.370456282056666</v>
+        <v>0.07214808886288887</v>
       </c>
       <c r="R28">
-        <v>48.33410653851</v>
+        <v>0.6493327997659999</v>
       </c>
       <c r="S28">
-        <v>0.0006846855006897908</v>
+        <v>5.029536972974785E-05</v>
       </c>
       <c r="T28">
-        <v>0.000684685500689791</v>
+        <v>5.029536972974784E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N29">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O29">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P29">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q29">
-        <v>0.3822331625036667</v>
+        <v>0.4150393999484445</v>
       </c>
       <c r="R29">
-        <v>3.440098462533001</v>
+        <v>3.735354599536</v>
       </c>
       <c r="S29">
-        <v>4.873133501216049E-05</v>
+        <v>0.000289329355798876</v>
       </c>
       <c r="T29">
-        <v>4.873133501216049E-05</v>
+        <v>0.000289329355798876</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N30">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O30">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P30">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q30">
-        <v>0.1616023776423333</v>
+        <v>0.06908853049933332</v>
       </c>
       <c r="R30">
-        <v>1.454421398781</v>
+        <v>0.6217967744939999</v>
       </c>
       <c r="S30">
-        <v>2.060286855297301E-05</v>
+        <v>4.816251186019003E-05</v>
       </c>
       <c r="T30">
-        <v>2.060286855297302E-05</v>
+        <v>4.816251186019003E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N31">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O31">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P31">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q31">
-        <v>9.863852427091667</v>
+        <v>0.2283681337544444</v>
       </c>
       <c r="R31">
-        <v>88.774671843825</v>
+        <v>2.05531320379</v>
       </c>
       <c r="S31">
-        <v>0.001257553619855015</v>
+        <v>0.0001591983918451417</v>
       </c>
       <c r="T31">
-        <v>0.001257553619855015</v>
+        <v>0.0001591983918451417</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.44358</v>
+        <v>1.299166</v>
       </c>
       <c r="N32">
-        <v>1.33074</v>
+        <v>3.897498000000001</v>
       </c>
       <c r="O32">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381129</v>
       </c>
       <c r="P32">
-        <v>0.02037110983696637</v>
+        <v>0.4012436242381128</v>
       </c>
       <c r="Q32">
-        <v>0.2003658253</v>
+        <v>0.03303822443533334</v>
       </c>
       <c r="R32">
-        <v>1.8032924277</v>
+        <v>0.297344019918</v>
       </c>
       <c r="S32">
-        <v>2.554486401369911E-05</v>
+        <v>2.303137531955057E-05</v>
       </c>
       <c r="T32">
-        <v>2.554486401369912E-05</v>
+        <v>2.303137531955056E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.756006</v>
       </c>
       <c r="O33">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="P33">
-        <v>0.04218923376267215</v>
+        <v>0.2837281342702381</v>
       </c>
       <c r="Q33">
-        <v>0.4149641678477778</v>
+        <v>0.02336205041622222</v>
       </c>
       <c r="R33">
-        <v>3.73467751063</v>
+        <v>0.210258453746</v>
       </c>
       <c r="S33">
-        <v>5.290424762984417E-05</v>
+        <v>1.628598874686614E-05</v>
       </c>
       <c r="T33">
-        <v>5.290424762984418E-05</v>
+        <v>1.628598874686613E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>6.947936666666666</v>
+        <v>0.09379033333333332</v>
       </c>
       <c r="N34">
-        <v>20.84381</v>
+        <v>0.281371</v>
       </c>
       <c r="O34">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="P34">
-        <v>0.3190792663712355</v>
+        <v>0.02896687048858063</v>
       </c>
       <c r="Q34">
-        <v>3.138394572227778</v>
+        <v>0.002385119440111111</v>
       </c>
       <c r="R34">
-        <v>28.24555115005</v>
+        <v>0.021466074961</v>
       </c>
       <c r="S34">
-        <v>0.0004001174474182648</v>
+        <v>1.662697737121933E-06</v>
       </c>
       <c r="T34">
-        <v>0.0004001174474182648</v>
+        <v>1.662697737121933E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.4945076666666667</v>
+        <v>0.5395386666666667</v>
       </c>
       <c r="N35">
-        <v>1.483523</v>
+        <v>1.618616</v>
       </c>
       <c r="O35">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="P35">
-        <v>0.02270992829453226</v>
+        <v>0.1666349412083848</v>
       </c>
       <c r="Q35">
-        <v>0.2233699372127778</v>
+        <v>0.01372064813955556</v>
       </c>
       <c r="R35">
-        <v>2.010329434915</v>
+        <v>0.123485833256</v>
       </c>
       <c r="S35">
-        <v>2.847768406765781E-05</v>
+        <v>9.564842007418516E-06</v>
       </c>
       <c r="T35">
-        <v>2.847768406765781E-05</v>
+        <v>9.564842007418515E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.2090703333333333</v>
+        <v>0.08981299999999999</v>
       </c>
       <c r="N36">
-        <v>0.627211</v>
+        <v>0.269439</v>
       </c>
       <c r="O36">
-        <v>0.009601412877010921</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="P36">
-        <v>0.009601412877010922</v>
+        <v>0.02773848270636518</v>
       </c>
       <c r="Q36">
-        <v>0.09443741801722222</v>
+        <v>0.002283974527666666</v>
       </c>
       <c r="R36">
-        <v>0.8499367621549999</v>
+        <v>0.020555770749</v>
       </c>
       <c r="S36">
-        <v>1.203993244577922E-05</v>
+        <v>1.592188305093263E-06</v>
       </c>
       <c r="T36">
-        <v>1.203993244577922E-05</v>
+        <v>1.592188305093263E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>12.76119166666667</v>
+        <v>0.2968716666666666</v>
       </c>
       <c r="N37">
-        <v>38.283575</v>
+        <v>0.8906149999999999</v>
       </c>
       <c r="O37">
-        <v>0.5860490488575828</v>
+        <v>0.09168794708831841</v>
       </c>
       <c r="P37">
-        <v>0.5860490488575829</v>
+        <v>0.0916879470883184</v>
       </c>
       <c r="Q37">
-        <v>5.764251544486111</v>
+        <v>0.007549545440555555</v>
       </c>
       <c r="R37">
-        <v>51.878263900375</v>
+        <v>0.067945908965</v>
       </c>
       <c r="S37">
-        <v>0.0007348909008019981</v>
+        <v>5.262886172160068E-06</v>
       </c>
       <c r="T37">
-        <v>0.0007348909008019982</v>
+        <v>5.262886172160067E-06</v>
       </c>
     </row>
   </sheetData>
